--- a/Main Excel.xlsx
+++ b/Main Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casey\Desktop\BAS_2023_Case_Competition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casey\Desktop\BAS-Case-Comp-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C171F5-6532-4B3A-BE19-520CC2E357B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA18EFD7-B17E-4E0D-A047-12D701A10DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{AF37F3FF-8798-4639-9657-537B9D771710}"/>
   </bookViews>
@@ -906,7 +906,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1709,7 +1709,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C56:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1746,13 +1746,13 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="13">
-        <v>-3.897630121892337E-2</v>
+        <v>-1.8954839501996945E-2</v>
       </c>
       <c r="E2" s="13">
-        <v>0.12411086349961753</v>
+        <v>3.5606503266315315E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1760,16 +1760,16 @@
         <v>2020</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="13">
-        <v>-2.8813166510509802E-2</v>
+        <v>-3.6268169196422062E-2</v>
       </c>
       <c r="E3" s="13">
-        <v>8.7854077212420778E-2</v>
+        <v>0.11053613913049642</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1777,16 +1777,16 @@
         <v>2020</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="13">
-        <v>-0.41046804217905708</v>
+        <v>1.2696075669358819E-2</v>
       </c>
       <c r="E4" s="13">
-        <v>1.1326204894820515</v>
+        <v>5.4374804473071858E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1794,106 +1794,106 @@
         <v>2020</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="13">
-        <v>-1.8954839501996945E-2</v>
+        <v>4.1310518724619882E-2</v>
       </c>
       <c r="E5" s="13">
-        <v>3.5606503266315315E-2</v>
+        <v>-2.4546377660528806E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="13">
-        <v>4.6367101183930615E-2</v>
+        <v>8.315903904080546E-2</v>
       </c>
       <c r="E6" s="13">
-        <v>2.0977743603232346E-2</v>
+        <v>8.4823611631197303E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" s="13">
-        <v>0.14966902832065054</v>
+        <v>1.6911849261546541E-2</v>
       </c>
       <c r="E7" s="13">
-        <v>-7.4639446123875186E-2</v>
+        <v>-1.1590115917090915E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="13">
-        <v>8.9252476098805822E-2</v>
+        <v>3.6536869963798901E-2</v>
       </c>
       <c r="E8" s="13">
-        <v>-7.0579824828282067E-2</v>
+        <v>-1.5911106085238047E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="13">
-        <v>3.0334584199967152E-2</v>
+        <v>9.6688325652920959E-2</v>
       </c>
       <c r="E9" s="13">
-        <v>9.412918100660872E-2</v>
+        <v>-0.13945658002388006</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="13">
-        <v>-0.42036760268530859</v>
+        <v>4.7435462626923296E-2</v>
       </c>
       <c r="E10" s="13">
-        <v>0.90587137902593406</v>
+        <v>5.0529259490537902E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -1902,384 +1902,384 @@
         <v>18</v>
       </c>
       <c r="D11" s="13">
-        <v>-3.6268169196422062E-2</v>
+        <v>6.4256073623475771E-3</v>
       </c>
       <c r="E11" s="13">
-        <v>0.11053613913049642</v>
+        <v>4.17951309511682E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" s="13">
-        <v>0.11449899513816031</v>
+        <v>1.1629695562196615E-2</v>
       </c>
       <c r="E12" s="13">
-        <v>8.2540103849531032E-3</v>
+        <v>-5.0724411218373419E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" s="13">
-        <v>0.106762440297274</v>
+        <v>5.8643354047500248E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>-3.5719379342421309E-2</v>
+        <v>3.0363680770178401E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="13">
-        <v>-6.0926319711046562E-2</v>
+        <v>1.6087953393913501E-2</v>
       </c>
       <c r="E14" s="13">
-        <v>5.0271554989430145E-2</v>
+        <v>8.0065765030362408E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="13">
-        <v>-3.4983047519831723E-2</v>
+        <v>1.9856100608905199E-2</v>
       </c>
       <c r="E15" s="13">
-        <v>5.4827356515962718E-2</v>
+        <v>9.2702087397286397E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16" s="13">
-        <v>-0.14203250885450969</v>
+        <v>5.5723836263720647E-3</v>
       </c>
       <c r="E16" s="13">
-        <v>5.8904690782059621E-2</v>
+        <v>-6.7551501115237604E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="13">
-        <v>1.2696075669358819E-2</v>
+        <v>1.8662086602615702E-2</v>
       </c>
       <c r="E17" s="13">
-        <v>5.4374804473071858E-3</v>
+        <v>2.5127724650959998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" s="13">
-        <v>5.6003894735332072E-2</v>
+        <v>6.4012111177851102E-3</v>
       </c>
       <c r="E18" s="13">
-        <v>-1.3065283441777598E-2</v>
+        <v>2.46510562150801E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19" s="13">
-        <v>0.16519675957086188</v>
+        <v>1.5481506506113E-2</v>
       </c>
       <c r="E19" s="13">
-        <v>-6.3126775400185631E-2</v>
+        <v>3.07779934455703E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="13">
-        <v>-6.2890432207749702E-2</v>
+        <v>6.7779304016159459E-3</v>
       </c>
       <c r="E20" s="13">
-        <v>0.11442014695900672</v>
+        <v>-4.2247310437766436E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="13">
-        <v>-1.804570605253919E-2</v>
+        <v>1.1969603003161725E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>5.5906759389048988E-2</v>
+        <v>2.7460940116201302E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" s="13">
-        <v>-0.14555217070168525</v>
+        <v>9.3112920941054505E-4</v>
       </c>
       <c r="E22" s="13">
-        <v>0.38109116663957376</v>
+        <v>2.2536799773164298E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="13">
-        <v>4.1310518724619882E-2</v>
+        <v>1.8633930303213499E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>-2.4546377660528806E-2</v>
+        <v>7.9799764086745505E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D24" s="13">
-        <v>5.5286481980999502E-2</v>
+        <v>1.6623001141626173E-3</v>
       </c>
       <c r="E24" s="13">
-        <v>1.1465272675467375E-2</v>
+        <v>-2.5395030604758524E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D25" s="13">
-        <v>0.15966652162874095</v>
+        <v>3.19972879746519E-2</v>
       </c>
       <c r="E25" s="13">
-        <v>-2.088195644138735E-2</v>
+        <v>3.8114887112995897E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="13">
-        <v>0.12360935788866767</v>
+        <v>8.3754689251395904E-3</v>
       </c>
       <c r="E26" s="13">
-        <v>-6.7227557068705424E-2</v>
+        <v>1.6592060711181199E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="13">
-        <v>2.8426918500850107E-2</v>
+        <v>1.6852160533848099E-2</v>
       </c>
       <c r="E27" s="13">
-        <v>3.7195337575742116E-2</v>
+        <v>9.2985294354450403E-4</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D28" s="13">
-        <v>0.98122045817683423</v>
+        <v>7.2584082048669264E-4</v>
       </c>
       <c r="E28" s="13">
-        <v>3.8729517285317698E-2</v>
+        <v>-1.4448611498759248E-3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="13">
-        <v>8.315903904080546E-2</v>
+        <v>2.6686599019721095E-2</v>
       </c>
       <c r="E29" s="13">
-        <v>8.4823611631197303E-3</v>
+        <v>2.8874971889359599E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" s="13">
-        <v>4.0524861221265862E-2</v>
+        <v>0.14966902832065054</v>
       </c>
       <c r="E30" s="13">
-        <v>2.43007838785958E-2</v>
+        <v>-7.4639446123875186E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="13">
-        <v>0.10292035922886367</v>
+        <v>0.106762440297274</v>
       </c>
       <c r="E31" s="13">
-        <v>-2.6341014987455225E-2</v>
+        <v>-3.5719379342421309E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D32" s="13">
-        <v>2.4528753440415052E-2</v>
+        <v>0.16519675957086188</v>
       </c>
       <c r="E32" s="13">
-        <v>-1.2414910787986622E-2</v>
+        <v>-6.3126775400185631E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D33" s="13">
-        <v>1.992412438657909E-2</v>
+        <v>0.15966652162874095</v>
       </c>
       <c r="E33" s="13">
-        <v>-4.5924602494064048E-2</v>
+        <v>-2.088195644138735E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2287,16 +2287,16 @@
         <v>2019</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D34" s="13">
-        <v>1.9550231371501594</v>
+        <v>0.10292035922886367</v>
       </c>
       <c r="E34" s="13">
-        <v>2.4054923327396649</v>
+        <v>-2.6341014987455225E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2307,13 +2307,13 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D35" s="13">
-        <v>1.6911849261546541E-2</v>
+        <v>0.10912951211950839</v>
       </c>
       <c r="E35" s="13">
-        <v>-1.1590115917090915E-2</v>
+        <v>-5.7400645990092002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2321,16 +2321,16 @@
         <v>2019</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" s="13">
-        <v>1.2607155608050924E-2</v>
+        <v>9.1533394689876868E-2</v>
       </c>
       <c r="E36" s="13">
-        <v>-6.7208977739448672E-2</v>
+        <v>-4.5624899056544654E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2338,208 +2338,208 @@
         <v>2019</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="13">
-        <v>0.10912951211950839</v>
+        <v>0.15427940776412918</v>
       </c>
       <c r="E37" s="13">
-        <v>-5.7400645990092002E-2</v>
+        <v>2.8189933941819678E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D38" s="13">
-        <v>5.5065893411250455E-2</v>
+        <v>6.4804395051615726E-2</v>
       </c>
       <c r="E38" s="13">
-        <v>1.1400503385172289E-2</v>
+        <v>-2.581069455676412E-3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D39" s="13">
-        <v>1.9628891169968465E-2</v>
+        <v>1.4785851015268994E-3</v>
       </c>
       <c r="E39" s="13">
-        <v>8.1065200225283185E-3</v>
+        <v>-5.0205179615649E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D40" s="13">
-        <v>0.20128567503062156</v>
+        <v>6.3137751698461142E-2</v>
       </c>
       <c r="E40" s="13">
-        <v>1.1072084452982458</v>
+        <v>-3.9074365062991646E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D41" s="13">
-        <v>3.6536869963798901E-2</v>
+        <v>7.1087128887196843E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>-1.5911106085238047E-2</v>
+        <v>1.2601028162613402E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" s="13">
-        <v>3.5997724237232243E-2</v>
+        <v>5.8470137581870446E-2</v>
       </c>
       <c r="E42" s="13">
-        <v>-2.913447507132072E-2</v>
+        <v>-2.2622334357078593E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="13">
-        <v>9.1533394689876868E-2</v>
+        <v>0.10406552023681898</v>
       </c>
       <c r="E43" s="13">
-        <v>-4.5624899056544654E-2</v>
+        <v>-6.083089946139613E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D44" s="13">
-        <v>5.5446173702719648E-2</v>
+        <v>9.6049596894324837E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>-7.0638390209365465E-4</v>
+        <v>-1.6501775659256903E-3</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D45" s="13">
-        <v>4.6664268882788962E-2</v>
+        <v>0.1270737963312337</v>
       </c>
       <c r="E45" s="13">
-        <v>1.29003473596494E-2</v>
+        <v>9.1728244312408371E-4</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D46" s="13">
-        <v>0.33634691787796944</v>
+        <v>0.1249085937865158</v>
       </c>
       <c r="E46" s="13">
-        <v>-0.16670052149372228</v>
+        <v>-6.6576130017558291E-4</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D47" s="13">
-        <v>9.6688325652920959E-2</v>
+        <v>0.10586102448214035</v>
       </c>
       <c r="E47" s="13">
-        <v>-0.13945658002388006</v>
+        <v>-5.0681728688546548E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D48" s="13">
-        <v>4.3012032560323377E-3</v>
+        <v>4.9931757810564727E-2</v>
       </c>
       <c r="E48" s="13">
-        <v>2.4965410436423641E-2</v>
+        <v>-1.6314908827183911E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2548,282 +2548,282 @@
         <v>23</v>
       </c>
       <c r="D49" s="13">
-        <v>0.15427940776412918</v>
+        <v>5.8885429203628624E-3</v>
       </c>
       <c r="E49" s="13">
-        <v>2.8189933941819678E-2</v>
+        <v>8.6344446563476254E-3</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D50" s="13">
-        <v>7.1614692853308001E-2</v>
+        <v>0.11240352824965143</v>
       </c>
       <c r="E50" s="13">
-        <v>0.11890147143152685</v>
+        <v>-2.1684915110282994E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D51" s="13">
-        <v>2.4447938633238454E-2</v>
+        <v>6.9507024280952137E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>3.7122242651207789E-2</v>
+        <v>-3.6847146977637335E-3</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D52" s="13">
-        <v>3.0972338401221999E-2</v>
+        <v>0.14151784527563946</v>
       </c>
       <c r="E52" s="13">
-        <v>2.2155760115273301E-2</v>
+        <v>-1.4481405380667913E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D53" s="13">
-        <v>4.7435462626923296E-2</v>
+        <v>0.13221675926664811</v>
       </c>
       <c r="E53" s="13">
-        <v>5.0529259490537902E-3</v>
+        <v>1.6042930022803589E-4</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B54" t="s">
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D54" s="13">
-        <v>1.003750886966487E-2</v>
+        <v>9.7975375408005216E-2</v>
       </c>
       <c r="E54" s="13">
-        <v>1.8376530061898547E-2</v>
+        <v>-3.7414925598026243E-4</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="13">
-        <v>6.4804395051615726E-2</v>
+        <v>4.6395106375799973E-2</v>
       </c>
       <c r="E55" s="13">
-        <v>-2.581069455676412E-3</v>
+        <v>-9.9697115092125185E-3</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D56" s="13">
-        <v>6.1516606992875564E-3</v>
+        <v>0.14397102487129332</v>
       </c>
       <c r="E56" s="13">
-        <v>-4.8180518802138743E-2</v>
+        <v>-1.7625242053078021E-3</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D57" s="13">
-        <v>1.3323580202927682E-3</v>
+        <v>8.6739546928950875E-2</v>
       </c>
       <c r="E57" s="13">
-        <v>2.04814445028965E-2</v>
+        <v>6.4637373166417621E-3</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D58" s="13">
-        <v>5.3323568186060898E-2</v>
+        <v>4.6367101183930615E-2</v>
       </c>
       <c r="E58" s="13">
-        <v>0.131660273959082</v>
+        <v>2.0977743603232346E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B59" t="s">
         <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D59" s="13">
-        <v>6.4256073623475771E-3</v>
+        <v>0.11449899513816031</v>
       </c>
       <c r="E59" s="13">
-        <v>4.17951309511682E-3</v>
+        <v>8.2540103849531032E-3</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="13">
-        <v>9.9520761131686557E-3</v>
+        <v>5.6003894735332072E-2</v>
       </c>
       <c r="E60" s="13">
-        <v>-4.0234418475122997E-2</v>
+        <v>-1.3065283441777598E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61" s="13">
-        <v>1.4785851015268994E-3</v>
+        <v>5.5286481980999502E-2</v>
       </c>
       <c r="E61" s="13">
-        <v>-5.0205179615649E-2</v>
+        <v>1.1465272675467375E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D62" s="13">
-        <v>3.7213747329669263E-2</v>
+        <v>4.0524861221265862E-2</v>
       </c>
       <c r="E62" s="13">
-        <v>1.0579263048282082E-2</v>
+        <v>2.43007838785958E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D63" s="13">
-        <v>1.8815424948554673E-2</v>
+        <v>1.2607155608050924E-2</v>
       </c>
       <c r="E63" s="13">
-        <v>1.7894934370795918E-3</v>
+        <v>-6.7208977739448672E-2</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B64" t="s">
         <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" s="13">
-        <v>0.1066010403777046</v>
+        <v>3.5997724237232243E-2</v>
       </c>
       <c r="E64" s="13">
-        <v>3.4579607820735311E-2</v>
+        <v>-2.913447507132072E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D65" s="13">
-        <v>1.1629695562196615E-2</v>
+        <v>4.3012032560323377E-3</v>
       </c>
       <c r="E65" s="13">
-        <v>-5.0724411218373419E-3</v>
+        <v>2.4965410436423641E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2831,16 +2831,16 @@
         <v>2018</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="13">
-        <v>1.0460184335053168E-2</v>
+        <v>1.003750886966487E-2</v>
       </c>
       <c r="E66" s="13">
-        <v>-2.4655092151663785E-3</v>
+        <v>1.8376530061898547E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2848,16 +2848,16 @@
         <v>2018</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" s="13">
-        <v>6.3137751698461142E-2</v>
+        <v>9.9520761131686557E-3</v>
       </c>
       <c r="E67" s="13">
-        <v>-3.9074365062991646E-2</v>
+        <v>-4.0234418475122997E-2</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2865,16 +2865,16 @@
         <v>2018</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D68" s="13">
-        <v>1.5827970734932879E-2</v>
+        <v>1.0460184335053168E-2</v>
       </c>
       <c r="E68" s="13">
-        <v>0.10003168025801769</v>
+        <v>-2.4655092151663785E-3</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2885,154 +2885,154 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D69" s="13">
-        <v>2.0258288540885249E-2</v>
+        <v>4.0501340445118963E-4</v>
       </c>
       <c r="E69" s="13">
-        <v>8.5359957236807987E-3</v>
+        <v>5.9691820398769602E-3</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D70" s="13">
-        <v>5.9037152194879997E-2</v>
+        <v>4.5414348513632408E-2</v>
       </c>
       <c r="E70" s="13">
-        <v>5.9079637235744997E-2</v>
+        <v>2.1416108347389138E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D71" s="13">
-        <v>5.8643354047500248E-2</v>
+        <v>2.4392199010681341E-2</v>
       </c>
       <c r="E71" s="13">
-        <v>3.0363680770178401E-2</v>
+        <v>-1.5823072961053831E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C72" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="13">
-        <v>4.0501340445118963E-4</v>
+        <v>4.4395622830888194E-2</v>
       </c>
       <c r="E72" s="13">
-        <v>5.9691820398769602E-3</v>
+        <v>-1.4123340060198544E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" s="13">
-        <v>7.1087128887196843E-2</v>
+        <v>3.3326947597356396E-2</v>
       </c>
       <c r="E73" s="13">
-        <v>1.2601028162613402E-2</v>
+        <v>1.3447882601602562E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B74" t="s">
         <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D74" s="13">
-        <v>1.8747206675814601E-2</v>
+        <v>1.9285153950958131E-2</v>
       </c>
       <c r="E74" s="13">
-        <v>5.6545192586164243E-2</v>
+        <v>1.5228323739541264E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D75" s="13">
-        <v>2.4272345511243899E-2</v>
+        <v>2.5625850051510912E-2</v>
       </c>
       <c r="E75" s="13">
-        <v>2.1528422804374111E-2</v>
+        <v>-1.7462301918938213E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D76" s="13">
-        <v>2.4305761379743999E-2</v>
+        <v>5.118700050183337E-2</v>
       </c>
       <c r="E76" s="13">
-        <v>1.57524998448045E-2</v>
+        <v>-1.1368181872029085E-3</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D77" s="13">
-        <v>1.6087953393913501E-2</v>
+        <v>2.6341400519958737E-2</v>
       </c>
       <c r="E77" s="13">
-        <v>8.0065765030362408E-3</v>
+        <v>3.631729693647009E-3</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3041,338 +3041,338 @@
         <v>22</v>
       </c>
       <c r="D78" s="13">
-        <v>4.5414348513632408E-2</v>
+        <v>3.3065315587258483E-2</v>
       </c>
       <c r="E78" s="13">
-        <v>2.1416108347389138E-2</v>
+        <v>1.6125797481555293E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D79" s="13">
-        <v>5.8470137581870446E-2</v>
+        <v>1.2596336217021857E-2</v>
       </c>
       <c r="E79" s="13">
-        <v>-2.2622334357078593E-2</v>
+        <v>-5.3862749754939642E-3</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D80" s="13">
-        <v>7.5105984215708341E-2</v>
+        <v>5.166935340241767E-2</v>
       </c>
       <c r="E80" s="13">
-        <v>-4.4047129392523192E-2</v>
+        <v>-9.1902895324275681E-3</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D81" s="13">
-        <v>2.4286667025810643E-2</v>
+        <v>4.3843387955341928E-2</v>
       </c>
       <c r="E81" s="13">
-        <v>1.0762389786383801E-2</v>
+        <v>6.9555041356625658E-3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D82" s="13">
-        <v>3.6241847294229801E-2</v>
+        <v>4.327934906544012E-2</v>
       </c>
       <c r="E82" s="13">
-        <v>0.111746365545132</v>
+        <v>1.4288014735113449E-3</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B83" t="s">
         <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D83" s="13">
-        <v>1.9856100608905199E-2</v>
+        <v>6.794756949611222E-2</v>
       </c>
       <c r="E83" s="13">
-        <v>9.2702087397286397E-3</v>
+        <v>-1.5855209674705797E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="13">
-        <v>2.4392199010681341E-2</v>
+        <v>9.1506245042698373E-3</v>
       </c>
       <c r="E84" s="13">
-        <v>-1.5823072961053831E-2</v>
+        <v>-2.0184758230265855E-4</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D85" s="13">
-        <v>0.10406552023681898</v>
+        <v>3.5506387049130207E-2</v>
       </c>
       <c r="E85" s="13">
-        <v>-6.083089946139613E-2</v>
+        <v>3.3739197541500245E-3</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="13">
-        <v>3.0779670575895542E-2</v>
+        <v>-3.897630121892337E-2</v>
       </c>
       <c r="E86" s="13">
-        <v>1.5249731292683652E-2</v>
+        <v>0.12411086349961753</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D87" s="13">
-        <v>1.1917813040766504E-2</v>
+        <v>8.9252476098805822E-2</v>
       </c>
       <c r="E87" s="13">
-        <v>5.5674657453478318E-3</v>
+        <v>-7.0579824828282067E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B88" t="s">
         <v>44</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D88" s="13">
-        <v>3.8306762850771121E-2</v>
+        <v>-6.0926319711046562E-2</v>
       </c>
       <c r="E88" s="13">
-        <v>5.3735662806291537E-2</v>
+        <v>5.0271554989430145E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89" s="13">
-        <v>5.5723836263720647E-3</v>
+        <v>-6.2890432207749702E-2</v>
       </c>
       <c r="E89" s="13">
-        <v>-6.7551501115237604E-3</v>
+        <v>0.11442014695900672</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D90" s="13">
-        <v>4.4395622830888194E-2</v>
+        <v>0.12360935788866767</v>
       </c>
       <c r="E90" s="13">
-        <v>-1.4123340060198544E-2</v>
+        <v>-6.7227557068705424E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D91" s="13">
-        <v>9.6049596894324837E-2</v>
+        <v>2.4528753440415052E-2</v>
       </c>
       <c r="E91" s="13">
-        <v>-1.6501775659256903E-3</v>
+        <v>-1.2414910787986622E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="13">
-        <v>4.9319387963631001E-2</v>
+        <v>5.5065893411250455E-2</v>
       </c>
       <c r="E92" s="13">
-        <v>5.7460318965952793E-2</v>
+        <v>1.1400503385172289E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B93" t="s">
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D93" s="13">
-        <v>1.0302978169734E-2</v>
+        <v>5.5446173702719648E-2</v>
       </c>
       <c r="E93" s="13">
-        <v>9.482939638018318E-3</v>
+        <v>-7.0638390209365465E-4</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D94" s="13">
-        <v>4.5436803433519498E-3</v>
+        <v>7.1614692853308001E-2</v>
       </c>
       <c r="E94" s="13">
-        <v>4.6058931862285997E-2</v>
+        <v>0.11890147143152685</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" s="13">
-        <v>1.8662086602615702E-2</v>
+        <v>6.1516606992875564E-3</v>
       </c>
       <c r="E95" s="13">
-        <v>2.5127724650959998E-2</v>
+        <v>-4.8180518802138743E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D96" s="13">
-        <v>3.3326947597356396E-2</v>
+        <v>3.7213747329669263E-2</v>
       </c>
       <c r="E96" s="13">
-        <v>1.3447882601602562E-2</v>
+        <v>1.0579263048282082E-2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D97" s="13">
-        <v>0.1270737963312337</v>
+        <v>1.5827970734932879E-2</v>
       </c>
       <c r="E97" s="13">
-        <v>9.1728244312408371E-4</v>
+        <v>0.10003168025801769</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B98" t="s">
         <v>42</v>
@@ -3381,61 +3381,61 @@
         <v>19</v>
       </c>
       <c r="D98" s="13">
-        <v>1.8084695994992E-2</v>
+        <v>1.8747206675814601E-2</v>
       </c>
       <c r="E98" s="13">
-        <v>2.2823433711700637E-2</v>
+        <v>5.6545192586164243E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99" s="13">
-        <v>1.6954534384187901E-2</v>
+        <v>7.5105984215708341E-2</v>
       </c>
       <c r="E99" s="13">
-        <v>1.146263864741843E-2</v>
+        <v>-4.4047129392523192E-2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D100" s="13">
-        <v>4.5063561857062701E-2</v>
+        <v>3.0779670575895542E-2</v>
       </c>
       <c r="E100" s="13">
-        <v>1.2191777307079999E-2</v>
+        <v>1.5249731292683652E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101" s="13">
-        <v>6.4012111177851102E-3</v>
+        <v>4.9319387963631001E-2</v>
       </c>
       <c r="E101" s="13">
-        <v>2.46510562150801E-3</v>
+        <v>5.7460318965952793E-2</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3446,13 +3446,13 @@
         <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D102" s="13">
-        <v>1.9285153950958131E-2</v>
+        <v>1.8084695994992E-2</v>
       </c>
       <c r="E102" s="13">
-        <v>1.5228323739541264E-2</v>
+        <v>2.2823433711700637E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3460,16 +3460,16 @@
         <v>2016</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D103" s="13">
-        <v>0.1249085937865158</v>
+        <v>1.7584301260407983E-2</v>
       </c>
       <c r="E103" s="13">
-        <v>-6.6576130017558291E-4</v>
+        <v>-5.1073668791884311E-2</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3477,16 +3477,16 @@
         <v>2016</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="13">
-        <v>1.7584301260407983E-2</v>
+        <v>1.9693927580403635E-2</v>
       </c>
       <c r="E104" s="13">
-        <v>-5.1073668791884311E-2</v>
+        <v>1.9679604015027073E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3494,208 +3494,208 @@
         <v>2016</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D105" s="13">
-        <v>2.3599865604682125E-2</v>
+        <v>3.08839326150981E-2</v>
       </c>
       <c r="E105" s="13">
-        <v>1.90596122229112E-2</v>
+        <v>3.2398958066174516E-2</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D106" s="13">
-        <v>1.4118506733294799E-2</v>
+        <v>1.4596122194205601E-2</v>
       </c>
       <c r="E106" s="13">
-        <v>0.101580537675522</v>
+        <v>8.9225258565284543E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B107" t="s">
         <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107" s="13">
-        <v>1.5481506506113E-2</v>
+        <v>6.4468173557884409E-2</v>
       </c>
       <c r="E107" s="13">
-        <v>3.07779934455703E-3</v>
+        <v>-2.5420545426141986E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D108" s="13">
-        <v>2.5625850051510912E-2</v>
+        <v>1.942805961402189E-2</v>
       </c>
       <c r="E108" s="13">
-        <v>-1.7462301918938213E-2</v>
+        <v>1.6961697822275881E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D109" s="13">
-        <v>0.10586102448214035</v>
+        <v>4.0510638207689798E-2</v>
       </c>
       <c r="E109" s="13">
-        <v>-5.0681728688546548E-2</v>
+        <v>7.5483727292929043E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B110" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="13">
-        <v>1.9693927580403635E-2</v>
+        <v>4.3632589865291197E-3</v>
       </c>
       <c r="E110" s="13">
-        <v>1.9679604015027073E-2</v>
+        <v>9.2298400567079442E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D111" s="13">
-        <v>1.0940461571399889E-2</v>
+        <v>2.319968908883787E-2</v>
       </c>
       <c r="E111" s="13">
-        <v>5.9630860913439314E-4</v>
+        <v>-6.8949517076006883E-2</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B112" t="s">
         <v>44</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D112" s="13">
-        <v>0.12834762220983736</v>
+        <v>2.0952872664026512E-2</v>
       </c>
       <c r="E112" s="13">
-        <v>3.1764729568784934E-2</v>
+        <v>5.4524969874804085E-3</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" s="13">
-        <v>6.7779304016159459E-3</v>
+        <v>1.7261166881206099E-2</v>
       </c>
       <c r="E113" s="13">
-        <v>-4.2247310437766436E-3</v>
+        <v>3.0418695768493799E-2</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B114" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D114" s="13">
-        <v>5.118700050183337E-2</v>
+        <v>-2.8813166510509802E-2</v>
       </c>
       <c r="E114" s="13">
-        <v>-1.1368181872029085E-3</v>
+        <v>8.7854077212420778E-2</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D115" s="13">
-        <v>4.9931757810564727E-2</v>
+        <v>3.0334584199967152E-2</v>
       </c>
       <c r="E115" s="13">
-        <v>-1.6314908827183911E-2</v>
+        <v>9.412918100660872E-2</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116" s="13">
-        <v>3.08839326150981E-2</v>
+        <v>-3.4983047519831723E-2</v>
       </c>
       <c r="E116" s="13">
-        <v>3.2398958066174516E-2</v>
+        <v>5.4827356515962718E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B117" t="s">
         <v>14</v>
@@ -3704,282 +3704,282 @@
         <v>20</v>
       </c>
       <c r="D117" s="13">
-        <v>1.5850322392918101E-2</v>
+        <v>-1.804570605253919E-2</v>
       </c>
       <c r="E117" s="13">
-        <v>3.0463643449908295E-3</v>
+        <v>5.5906759389048988E-2</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D118" s="13">
-        <v>2.7708252813280199E-2</v>
+        <v>2.8426918500850107E-2</v>
       </c>
       <c r="E118" s="13">
-        <v>4.9264735862586402E-2</v>
+        <v>3.7195337575742116E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D119" s="13">
-        <v>1.1969603003161725E-2</v>
+        <v>1.992412438657909E-2</v>
       </c>
       <c r="E119" s="13">
-        <v>2.7460940116201302E-2</v>
+        <v>-4.5924602494064048E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D120" s="13">
-        <v>2.6341400519958737E-2</v>
+        <v>1.9628891169968465E-2</v>
       </c>
       <c r="E120" s="13">
-        <v>3.631729693647009E-3</v>
+        <v>8.1065200225283185E-3</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B121" t="s">
         <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D121" s="13">
-        <v>5.8885429203628624E-3</v>
+        <v>4.6664268882788962E-2</v>
       </c>
       <c r="E121" s="13">
-        <v>8.6344446563476254E-3</v>
+        <v>1.29003473596494E-2</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B122" t="s">
         <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D122" s="13">
-        <v>1.4596122194205601E-2</v>
+        <v>2.4447938633238454E-2</v>
       </c>
       <c r="E122" s="13">
-        <v>8.9225258565284543E-2</v>
+        <v>3.7122242651207789E-2</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
         <v>20</v>
       </c>
       <c r="D123" s="13">
-        <v>9.2627561142160503E-3</v>
+        <v>1.3323580202927682E-3</v>
       </c>
       <c r="E123" s="13">
-        <v>1.7897131137638897E-2</v>
+        <v>2.04814445028965E-2</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D124" s="13">
-        <v>4.1463073250482697E-3</v>
+        <v>1.8815424948554673E-2</v>
       </c>
       <c r="E124" s="13">
-        <v>9.7447627031696602E-3</v>
+        <v>1.7894934370795918E-3</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D125" s="13">
-        <v>9.3112920941054505E-4</v>
+        <v>2.0258288540885249E-2</v>
       </c>
       <c r="E125" s="13">
-        <v>2.2536799773164298E-3</v>
+        <v>8.5359957236807987E-3</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B126" t="s">
         <v>42</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D126" s="13">
-        <v>3.3065315587258483E-2</v>
+        <v>2.4272345511243899E-2</v>
       </c>
       <c r="E126" s="13">
-        <v>1.6125797481555293E-2</v>
+        <v>2.1528422804374111E-2</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D127" s="13">
-        <v>0.11240352824965143</v>
+        <v>2.4286667025810643E-2</v>
       </c>
       <c r="E127" s="13">
-        <v>-2.1684915110282994E-2</v>
+        <v>1.0762389786383801E-2</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D128" s="13">
-        <v>6.4468173557884409E-2</v>
+        <v>1.1917813040766504E-2</v>
       </c>
       <c r="E128" s="13">
-        <v>-2.5420545426141986E-2</v>
+        <v>5.5674657453478318E-3</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
         <v>20</v>
       </c>
       <c r="D129" s="13">
-        <v>1.7502299705156182E-3</v>
+        <v>1.0302978169734E-2</v>
       </c>
       <c r="E129" s="13">
-        <v>6.1319468120128E-3</v>
+        <v>9.482939638018318E-3</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D130" s="13">
-        <v>4.3551407336923198E-2</v>
+        <v>1.6954534384187901E-2</v>
       </c>
       <c r="E130" s="13">
-        <v>6.791673321232089E-2</v>
+        <v>1.146263864741843E-2</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B131" t="s">
         <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D131" s="13">
-        <v>1.8633930303213499E-2</v>
+        <v>2.3599865604682125E-2</v>
       </c>
       <c r="E131" s="13">
-        <v>7.9799764086745505E-3</v>
+        <v>1.90596122229112E-2</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D132" s="13">
-        <v>1.2596336217021857E-2</v>
+        <v>1.0940461571399889E-2</v>
       </c>
       <c r="E132" s="13">
-        <v>-5.3862749754939642E-3</v>
+        <v>5.9630860913439314E-4</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D133" s="13">
-        <v>6.9507024280952137E-2</v>
+        <v>1.5850322392918101E-2</v>
       </c>
       <c r="E133" s="13">
-        <v>-3.6847146977637335E-3</v>
+        <v>3.0463643449908295E-3</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3987,16 +3987,16 @@
         <v>2015</v>
       </c>
       <c r="B134" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D134" s="13">
-        <v>1.942805961402189E-2</v>
+        <v>9.2627561142160503E-3</v>
       </c>
       <c r="E134" s="13">
-        <v>1.6961697822275881E-2</v>
+        <v>1.7897131137638897E-2</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4004,16 +4004,16 @@
         <v>2015</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
         <v>20</v>
       </c>
       <c r="D135" s="13">
-        <v>1.2828278937418393E-2</v>
+        <v>1.7502299705156182E-3</v>
       </c>
       <c r="E135" s="13">
-        <v>7.7884851685588953E-4</v>
+        <v>6.1319468120128E-3</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4024,13 +4024,13 @@
         <v>44</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D136" s="13">
-        <v>0.16374246215980331</v>
+        <v>1.2828278937418393E-2</v>
       </c>
       <c r="E136" s="13">
-        <v>4.3448209266764876E-2</v>
+        <v>7.7884851685588953E-4</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4038,72 +4038,72 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D137" s="13">
-        <v>1.6623001141626173E-3</v>
+        <v>3.9581970291031002E-3</v>
       </c>
       <c r="E137" s="13">
-        <v>-2.5395030604758524E-3</v>
+        <v>1.9592916087059929E-3</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D138" s="13">
-        <v>5.166935340241767E-2</v>
+        <v>5.5561357852148604E-3</v>
       </c>
       <c r="E138" s="13">
-        <v>-9.1902895324275681E-3</v>
+        <v>6.8646020060019524E-3</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" s="13">
-        <v>0.14151784527563946</v>
+        <v>1.2224725656903089E-3</v>
       </c>
       <c r="E139" s="13">
-        <v>-1.4481405380667913E-3</v>
+        <v>4.6795232152170296E-3</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D140" s="13">
-        <v>4.0510638207689798E-2</v>
+        <v>1.5636356274283177E-2</v>
       </c>
       <c r="E140" s="13">
-        <v>7.5483727292929043E-2</v>
+        <v>4.3010136503163405E-4</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B141" t="s">
         <v>14</v>
@@ -4112,321 +4112,321 @@
         <v>20</v>
       </c>
       <c r="D141" s="13">
-        <v>3.9581970291031002E-3</v>
+        <v>7.1252119422440096E-3</v>
       </c>
       <c r="E141" s="13">
-        <v>1.9592916087059929E-3</v>
+        <v>2.8757491731192073E-4</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C142" t="s">
         <v>21</v>
       </c>
       <c r="D142" s="13">
-        <v>4.18539162278063E-2</v>
+        <v>-0.41046804217905708</v>
       </c>
       <c r="E142" s="13">
-        <v>1.8212046724604601E-2</v>
+        <v>1.1326204894820515</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D143" s="13">
-        <v>3.19972879746519E-2</v>
+        <v>-0.42036760268530859</v>
       </c>
       <c r="E143" s="13">
-        <v>3.8114887112995897E-2</v>
+        <v>0.90587137902593406</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D144" s="13">
-        <v>4.3843387955341928E-2</v>
+        <v>-0.14203250885450969</v>
       </c>
       <c r="E144" s="13">
-        <v>6.9555041356625658E-3</v>
+        <v>5.8904690782059621E-2</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="B145" t="s">
         <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D145" s="13">
-        <v>0.13221675926664811</v>
+        <v>-0.14555217070168525</v>
       </c>
       <c r="E145" s="13">
-        <v>1.6042930022803589E-4</v>
+        <v>0.38109116663957376</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B146" t="s">
         <v>42</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D146" s="13">
-        <v>4.3632589865291197E-3</v>
+        <v>0.98122045817683423</v>
       </c>
       <c r="E146" s="13">
-        <v>9.2298400567079442E-2</v>
+        <v>3.8729517285317698E-2</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D147" s="13">
-        <v>5.5561357852148604E-3</v>
+        <v>1.9550231371501594</v>
       </c>
       <c r="E147" s="13">
-        <v>6.8646020060019524E-3</v>
+        <v>2.4054923327396649</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B148" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C148" t="s">
         <v>21</v>
       </c>
       <c r="D148" s="13">
-        <v>3.3701437629237198E-2</v>
+        <v>0.20128567503062156</v>
       </c>
       <c r="E148" s="13">
-        <v>6.2347469425763002E-3</v>
+        <v>1.1072084452982458</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D149" s="13">
-        <v>8.3754689251395904E-3</v>
+        <v>0.33634691787796944</v>
       </c>
       <c r="E149" s="13">
-        <v>1.6592060711181199E-3</v>
+        <v>-0.16670052149372228</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B150" t="s">
         <v>42</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D150" s="13">
-        <v>4.327934906544012E-2</v>
+        <v>3.0972338401221999E-2</v>
       </c>
       <c r="E150" s="13">
-        <v>1.4288014735113449E-3</v>
+        <v>2.2155760115273301E-2</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D151" s="13">
-        <v>9.7975375408005216E-2</v>
+        <v>5.3323568186060898E-2</v>
       </c>
       <c r="E151" s="13">
-        <v>-3.7414925598026243E-4</v>
+        <v>0.131660273959082</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D152" s="13">
-        <v>2.319968908883787E-2</v>
+        <v>0.1066010403777046</v>
       </c>
       <c r="E152" s="13">
-        <v>-6.8949517076006883E-2</v>
+        <v>3.4579607820735311E-2</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D153" s="13">
-        <v>1.2224725656903089E-3</v>
+        <v>5.9037152194879997E-2</v>
       </c>
       <c r="E153" s="13">
-        <v>4.6795232152170296E-3</v>
+        <v>5.9079637235744997E-2</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C154" t="s">
         <v>21</v>
       </c>
       <c r="D154" s="13">
-        <v>4.4405610953928601E-2</v>
+        <v>2.4305761379743999E-2</v>
       </c>
       <c r="E154" s="13">
-        <v>0.11668156536745586</v>
+        <v>1.57524998448045E-2</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B155" t="s">
         <v>43</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D155" s="13">
-        <v>1.6852160533848099E-2</v>
+        <v>3.6241847294229801E-2</v>
       </c>
       <c r="E155" s="13">
-        <v>9.2985294354450403E-4</v>
+        <v>0.111746365545132</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D156" s="13">
-        <v>6.794756949611222E-2</v>
+        <v>3.8306762850771121E-2</v>
       </c>
       <c r="E156" s="13">
-        <v>-1.5855209674705797E-2</v>
+        <v>5.3735662806291537E-2</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D157" s="13">
-        <v>4.6395106375799973E-2</v>
+        <v>4.5436803433519498E-3</v>
       </c>
       <c r="E157" s="13">
-        <v>-9.9697115092125185E-3</v>
+        <v>4.6058931862285997E-2</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B158" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D158" s="13">
-        <v>2.0952872664026512E-2</v>
+        <v>4.5063561857062701E-2</v>
       </c>
       <c r="E158" s="13">
-        <v>5.4524969874804085E-3</v>
+        <v>1.2191777307079999E-2</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D159" s="13">
-        <v>1.5636356274283177E-2</v>
+        <v>1.4118506733294799E-2</v>
       </c>
       <c r="E159" s="13">
-        <v>4.3010136503163405E-4</v>
+        <v>0.101580537675522</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B160" t="s">
         <v>44</v>
@@ -4435,95 +4435,95 @@
         <v>21</v>
       </c>
       <c r="D160" s="13">
-        <v>0.14927101858039837</v>
+        <v>0.12834762220983736</v>
       </c>
       <c r="E160" s="13">
-        <v>1.9537806155151386E-2</v>
+        <v>3.1764729568784934E-2</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B161" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D161" s="13">
-        <v>7.2584082048669264E-4</v>
+        <v>2.7708252813280199E-2</v>
       </c>
       <c r="E161" s="13">
-        <v>-1.4448611498759248E-3</v>
+        <v>4.9264735862586402E-2</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B162" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D162" s="13">
-        <v>9.1506245042698373E-3</v>
+        <v>4.1463073250482697E-3</v>
       </c>
       <c r="E162" s="13">
-        <v>-2.0184758230265855E-4</v>
+        <v>9.7447627031696602E-3</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D163" s="13">
-        <v>0.14397102487129332</v>
+        <v>4.3551407336923198E-2</v>
       </c>
       <c r="E163" s="13">
-        <v>-1.7625242053078021E-3</v>
+        <v>6.791673321232089E-2</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D164" s="13">
-        <v>1.7261166881206099E-2</v>
+        <v>0.16374246215980331</v>
       </c>
       <c r="E164" s="13">
-        <v>3.0418695768493799E-2</v>
+        <v>4.3448209266764876E-2</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B165" t="s">
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D165" s="13">
-        <v>7.1252119422440096E-3</v>
+        <v>4.18539162278063E-2</v>
       </c>
       <c r="E165" s="13">
-        <v>2.8757491731192073E-4</v>
+        <v>1.8212046724604601E-2</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4531,16 +4531,16 @@
         <v>2014</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C166" t="s">
         <v>21</v>
       </c>
       <c r="D166" s="13">
-        <v>3.76975169262408E-2</v>
+        <v>3.3701437629237198E-2</v>
       </c>
       <c r="E166" s="13">
-        <v>1.0339404621000499E-2</v>
+        <v>6.2347469425763002E-3</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4548,16 +4548,16 @@
         <v>2014</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D167" s="13">
-        <v>2.6686599019721095E-2</v>
+        <v>4.4405610953928601E-2</v>
       </c>
       <c r="E167" s="13">
-        <v>2.8874971889359599E-2</v>
+        <v>0.11668156536745586</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4565,16 +4565,16 @@
         <v>2014</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D168" s="13">
-        <v>3.5506387049130207E-2</v>
+        <v>0.14927101858039837</v>
       </c>
       <c r="E168" s="13">
-        <v>3.3739197541500245E-3</v>
+        <v>1.9537806155151386E-2</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4585,16 +4585,19 @@
         <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D169" s="13">
-        <v>8.6739546928950875E-2</v>
+        <v>3.76975169262408E-2</v>
       </c>
       <c r="E169" s="13">
-        <v>6.4637373166417621E-3</v>
+        <v>1.0339404621000499E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E169">
+    <sortCondition ref="C2:C169"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4604,7 +4607,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4896,7 +4899,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
